--- a/biology/Microbiologie/Coloration_de_Gram/Coloration_de_Gram.xlsx
+++ b/biology/Microbiologie/Coloration_de_Gram/Coloration_de_Gram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La coloration de Gram doit son nom au bactériologiste danois Hans Christian Gram qui mit au point le protocole en 1884. C'est une coloration qui permet de mettre en évidence les propriétés de la paroi bactérienne, et d'utiliser ces propriétés pour distinguer et classifier les bactéries. Son avantage est de donner une information rapide, facile et bon marché sur les bactéries présentes dans un produit ou un milieu, tant sur le type que sur la forme.
-Ainsi, les scientifiques peuvent distinguer les bactéries à Gram positif - on dit aussi « Gram positives » - dotées d'une simple paroi avec une grande quantité de peptidoglycane, des bactéries à Gram négatif, composées de moins de peptidoglycane mais pourvues d'une membrane externe supplémentaire[1]. Ce type de classification n'est pas sans conséquence dans le domaine médical (la résistance des bactéries et l'efficacité d'antibiotiques dépendant du type de bactérie).
+Ainsi, les scientifiques peuvent distinguer les bactéries à Gram positif - on dit aussi « Gram positives » - dotées d'une simple paroi avec une grande quantité de peptidoglycane, des bactéries à Gram négatif, composées de moins de peptidoglycane mais pourvues d'une membrane externe supplémentaire. Ce type de classification n'est pas sans conséquence dans le domaine médical (la résistance des bactéries et l'efficacité d'antibiotiques dépendant du type de bactérie).
 </t>
         </is>
       </c>
@@ -514,12 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Réalisation du frottis
-Elle nécessite d'avoir un frottis fixé, soit :
+          <t>Réalisation du frottis</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Elle nécessite d'avoir un frottis fixé, soit :
 Par immersion dans l'alcool durant 5 minutes (et rinçage à l'eau) ;
-Plus classiquement en effectuant une fixation simple à la chaleur : sur une lame, déposer une goutte d'eau stérile (ou directement le prélèvement s'il est liquide). Ajouter à la goutte une colonie isolée (dans le cas où un isolement a été fait). Étaler et fixer à la chaleur d'une platine à environ 40 °C. Une fois sèche, recouvrir la lame d'alcool pendant une minute. Retirer l'alcool et mettre à sécher sur la platine. Poser la lame séchée sur le portoir reposant sur un bac de coloration.
-Réalisation de la coloration
-Voici succinctement les différentes étapes de cette coloration :
+Plus classiquement en effectuant une fixation simple à la chaleur : sur une lame, déposer une goutte d'eau stérile (ou directement le prélèvement s'il est liquide). Ajouter à la goutte une colonie isolée (dans le cas où un isolement a été fait). Étaler et fixer à la chaleur d'une platine à environ 40 °C. Une fois sèche, recouvrir la lame d'alcool pendant une minute. Retirer l'alcool et mettre à sécher sur la platine. Poser la lame séchée sur le portoir reposant sur un bac de coloration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Coloration_de_Gram</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coloration_de_Gram</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Méthodologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Réalisation de la coloration</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici succinctement les différentes étapes de cette coloration :
 Coloration par le violet de gentiane ou cristal violet. Laissez agir de 30 secondes à 1 minute, puis rincez à l'eau ;
 Mordançage au lugol (solution iodo-iodurée) : recouvrez de lugol et laissez agir le même temps que le violet de gentiane ; rincez à l'eau déminéralisée ;
 Décoloration (rapide) à l'alcool (+acétone). Cette l'étape est la plus importante de la coloration. Versez goutte à goutte l'alcool ou un mélange alcool-acétone sur la lame inclinée obliquement, et surveillez la décoloration qui doit être rapide. Le filet doit être clair à la fin de la décoloration. Rincez abondamment avec de l'eau déminéralisée pour stopper la décoloration. Attention, l'utilisation abusive de l'alcool aura pour conséquence de rendre toutes les bactéries Gram négatif ;
@@ -537,67 +588,74 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Coloration_de_Gram</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Coloration_de_Gram</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Utilisation en microbiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La coloration de Gram est fréquemment utilisée en microbiologie pour mettre en évidence les bactéries Gram positif ou négatif. Cela permet de différencier et de classer les différentes populations de micro-organismes. Par exemple, lorsqu'il y a suspicion d'infection de l'organisme dans une biopsie, on pourra utiliser cette coloration suivie d'une analyse histopathologique pour émettre un diagnostic. Cette méthode a l'avantage d'être plus rapide qu'une culture classique[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La coloration de Gram est fréquemment utilisée en microbiologie pour mettre en évidence les bactéries Gram positif ou négatif. Cela permet de différencier et de classer les différentes populations de micro-organismes. Par exemple, lorsqu'il y a suspicion d'infection de l'organisme dans une biopsie, on pourra utiliser cette coloration suivie d'une analyse histopathologique pour émettre un diagnostic. Cette méthode a l'avantage d'être plus rapide qu'une culture classique.
 Les bactéries détectées sont classées en deux catégories. À titre d'exemples :
 les staphylocoques et les streptocoques, bactéries à Gram +, apparaissent en violet ;
 Escherichia coli, entérobactérie à Gram -, apparaît sous forme de bacille rose/rouge (en fonction de la contre-coloration fuchsine ou safranine).</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Coloration_de_Gram</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Coloration_de_Gram</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Alternative</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Gram KOH'
-Le but de cette méthode est de confirmer rapidement si une bactérie est à Gram positif ou à Gram négatif sans passer par les étapes de coloration habituelles et sans utiliser de microscope. Il suffit de mettre en contact (sur une lame pour microscope) une colonie isolée avec une goutte d'une solution de potasse (KOH) 3 %. À l'aide d'une pipette Pasteur, on mélange. Quelques secondes plus tard, on tire le mélange vers le haut. Si un filament se forme entre la pipette et la lame, la colonie isolée est alors constituée de bactéries Gram négatives ; si rien n'est entraîné par la pipette, on a affaire à des bactéries Gram positives. La méthode est proposée comme contrôle qualité de la coloration de Gram en 1977[3]. Lors d'une évaluation (John Buck, 1982) les résultats obtenus par cette méthode sur 400 souches de bactéries marines ont été confirmés par la coloration de Gram[4].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>'Gram KOH'</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le but de cette méthode est de confirmer rapidement si une bactérie est à Gram positif ou à Gram négatif sans passer par les étapes de coloration habituelles et sans utiliser de microscope. Il suffit de mettre en contact (sur une lame pour microscope) une colonie isolée avec une goutte d'une solution de potasse (KOH) 3 %. À l'aide d'une pipette Pasteur, on mélange. Quelques secondes plus tard, on tire le mélange vers le haut. Si un filament se forme entre la pipette et la lame, la colonie isolée est alors constituée de bactéries Gram négatives ; si rien n'est entraîné par la pipette, on a affaire à des bactéries Gram positives. La méthode est proposée comme contrôle qualité de la coloration de Gram en 1977. Lors d'une évaluation (John Buck, 1982) les résultats obtenus par cette méthode sur 400 souches de bactéries marines ont été confirmés par la coloration de Gram.
 </t>
         </is>
       </c>
